--- a/ArticleManage/main_working_folder/output_folders/Data 139 Adsorption of Arsenate by/Data139_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 139 Adsorption of Arsenate by/Data139_all_graphs_excel.xlsx
@@ -5,9 +5,9 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 2 N  0-1-125-450 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 2 NFC  0-1-125-450 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 2 NFM  0-1-125-450 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2 N  0&amp;1&amp;125&amp;450 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2 NFC  0&amp;1&amp;125&amp;450 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2 NFM  0&amp;1&amp;125&amp;450 " sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -164,12 +164,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 N  0-1-125-450 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 N  0&amp;1&amp;125&amp;450 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 N  0-1-125-450 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 N  0&amp;1&amp;125&amp;450 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -478,12 +478,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 NFC  0-1-125-450 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 NFC  0&amp;1&amp;125&amp;450 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 NFC  0-1-125-450 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 NFC  0&amp;1&amp;125&amp;450 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -792,12 +792,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 NFM  0-1-125-450 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 NFM  0&amp;1&amp;125&amp;450 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 NFM  0-1-125-450 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 NFM  0&amp;1&amp;125&amp;450 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
